--- a/example.xlsx
+++ b/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Годен до</t>
   </si>
@@ -136,10 +136,22 @@
     <t>Юрий Александрович</t>
   </si>
   <si>
-    <t>hfgh</t>
-  </si>
-  <si>
-    <t>dfg</t>
+    <t>Клещи токоизмерительные</t>
+  </si>
+  <si>
+    <t>APPA 75</t>
+  </si>
+  <si>
+    <t>4ff55555</t>
+  </si>
+  <si>
+    <t>Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>4ff55556</t>
+  </si>
+  <si>
+    <t>Утерян</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -551,9 +563,7 @@
       <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1">
-        <v>76</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -601,9 +611,7 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -627,7 +635,9 @@
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -643,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="3">
-        <v>44406</v>
+        <v>44468</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -675,9 +685,7 @@
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -885,7 +893,7 @@
         <v>75009</v>
       </c>
       <c r="E16" s="3">
-        <v>44394</v>
+        <v>44486</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -909,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="3">
-        <v>44394</v>
+        <v>44486</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
@@ -933,7 +941,7 @@
         <v>579</v>
       </c>
       <c r="E18" s="3">
-        <v>44394</v>
+        <v>44486</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -966,6 +974,78 @@
         <v>27</v>
       </c>
       <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44411</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9010</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44213</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44428</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
